--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversalK\Salary\Master list_salary\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -55,9 +55,9 @@
     <definedName name="ccc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -77,14 +77,14 @@
     <definedName name="Ｌホ">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
     <definedName name="OPT_YES">[7]!OPT_YES</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$N$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A:$A</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -109,8 +109,8 @@
     <definedName name="クにＨ">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[11]項目定義書!$A$3:$E$364</definedName>
@@ -127,33 +127,8 @@
     <definedName name="ユーザー一覧">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[15]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2">#REF!</definedName>
     <definedName name="画面３">#REF!</definedName>
@@ -161,21 +136,18 @@
     <definedName name="画面5">#REF!</definedName>
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[16]!終了</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[15]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
@@ -184,7 +156,35 @@
     <definedName name="項目名の登録6">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了">[16]!終了</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -245,21 +245,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -287,7 +287,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -855,7 +855,7 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,6 +1020,18 @@
     <xf numFmtId="40" fontId="4" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,18 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -44936,42 +44936,40 @@
   </sheetPr>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="1.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="24" customWidth="1"/>
-    <col min="7" max="12" width="24" style="24" customWidth="1"/>
-    <col min="13" max="13" width="34" style="24" customWidth="1"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.25" style="24" customWidth="1"/>
+    <col min="9" max="13" width="13.625" style="24" customWidth="1"/>
     <col min="14" max="14" width="1" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="1"/>
+    <col min="15" max="15" width="4.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="1.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
-      <c r="C2" s="65"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -44981,30 +44979,30 @@
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="60"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="64"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -45044,7 +45042,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" thickTop="1">
+    <row r="5" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="15"/>
       <c r="C5" s="7"/>
@@ -45061,7 +45059,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="16"/>
       <c r="C6" s="10"/>
@@ -45078,7 +45076,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="37"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
@@ -45095,7 +45093,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="41"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="16"/>
       <c r="C8" s="10"/>
@@ -45110,7 +45108,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
@@ -45125,7 +45123,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="16"/>
       <c r="C10" s="10"/>
@@ -45140,7 +45138,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="15"/>
       <c r="C11" s="7"/>
@@ -45155,7 +45153,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="41"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="16"/>
       <c r="C12" s="10"/>
@@ -45170,7 +45168,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="15"/>
       <c r="C13" s="7"/>
@@ -45185,7 +45183,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="16"/>
       <c r="C14" s="10"/>
@@ -45200,7 +45198,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="15"/>
       <c r="C15" s="7"/>
@@ -45215,7 +45213,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="41"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -45230,7 +45228,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
@@ -45245,7 +45243,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="41"/>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="16"/>
       <c r="C18" s="10"/>
@@ -45260,7 +45258,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="15"/>
       <c r="C19" s="7"/>
@@ -45275,7 +45273,7 @@
       <c r="L19" s="39"/>
       <c r="M19" s="41"/>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="16"/>
       <c r="C20" s="10"/>
@@ -45290,7 +45288,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="15"/>
       <c r="C21" s="7"/>
@@ -45305,7 +45303,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="41"/>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="16"/>
       <c r="C22" s="10"/>
@@ -45320,7 +45318,7 @@
       <c r="L22" s="35"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
@@ -45335,7 +45333,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="41"/>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
       <c r="C24" s="10"/>
@@ -45350,7 +45348,7 @@
       <c r="L24" s="35"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
@@ -45365,7 +45363,7 @@
       <c r="L25" s="39"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="16"/>
       <c r="C26" s="10"/>
@@ -45380,7 +45378,7 @@
       <c r="L26" s="35"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
@@ -45395,7 +45393,7 @@
       <c r="L27" s="39"/>
       <c r="M27" s="41"/>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
@@ -45410,7 +45408,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
@@ -45425,7 +45423,7 @@
       <c r="L29" s="39"/>
       <c r="M29" s="41"/>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
@@ -45440,7 +45438,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
@@ -45455,7 +45453,7 @@
       <c r="L31" s="39"/>
       <c r="M31" s="41"/>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="16"/>
       <c r="C32" s="10"/>
@@ -45470,7 +45468,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
@@ -45485,7 +45483,7 @@
       <c r="L33" s="39"/>
       <c r="M33" s="41"/>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10"/>
@@ -45500,7 +45498,7 @@
       <c r="L34" s="35"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
@@ -45515,7 +45513,7 @@
       <c r="L35" s="39"/>
       <c r="M35" s="41"/>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10"/>
@@ -45530,7 +45528,7 @@
       <c r="L36" s="35"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
@@ -45545,7 +45543,7 @@
       <c r="L37" s="39"/>
       <c r="M37" s="41"/>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="16"/>
       <c r="C38" s="10"/>
@@ -45560,7 +45558,7 @@
       <c r="L38" s="35"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
@@ -45575,7 +45573,7 @@
       <c r="L39" s="39"/>
       <c r="M39" s="41"/>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10"/>
@@ -45590,7 +45588,7 @@
       <c r="L40" s="35"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
@@ -45605,7 +45603,7 @@
       <c r="L41" s="39"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="10"/>
@@ -45620,7 +45618,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="37"/>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -45635,7 +45633,7 @@
       <c r="L43" s="39"/>
       <c r="M43" s="41"/>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="16"/>
       <c r="C44" s="10"/>
@@ -45650,7 +45648,7 @@
       <c r="L44" s="35"/>
       <c r="M44" s="37"/>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -45665,7 +45663,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="41"/>
     </row>
-    <row r="46" spans="1:13" ht="18" customHeight="1">
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17"/>
       <c r="B46" s="16"/>
       <c r="C46" s="10"/>
@@ -45680,7 +45678,7 @@
       <c r="L46" s="35"/>
       <c r="M46" s="37"/>
     </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -45695,7 +45693,7 @@
       <c r="L47" s="39"/>
       <c r="M47" s="41"/>
     </row>
-    <row r="48" spans="1:13" ht="18" customHeight="1">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -45710,7 +45708,7 @@
       <c r="L48" s="35"/>
       <c r="M48" s="37"/>
     </row>
-    <row r="49" spans="1:13" ht="18" customHeight="1">
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -45725,7 +45723,7 @@
       <c r="L49" s="39"/>
       <c r="M49" s="41"/>
     </row>
-    <row r="50" spans="1:13" ht="18" customHeight="1">
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="16"/>
       <c r="C50" s="10"/>
@@ -45740,7 +45738,7 @@
       <c r="L50" s="35"/>
       <c r="M50" s="37"/>
     </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1">
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="15"/>
       <c r="C51" s="7"/>
@@ -45755,7 +45753,7 @@
       <c r="L51" s="39"/>
       <c r="M51" s="41"/>
     </row>
-    <row r="52" spans="1:13" ht="18" customHeight="1">
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="16"/>
       <c r="C52" s="10"/>
@@ -45770,7 +45768,7 @@
       <c r="L52" s="35"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="1:13" ht="18" customHeight="1">
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
       <c r="C53" s="7"/>
@@ -45785,7 +45783,7 @@
       <c r="L53" s="39"/>
       <c r="M53" s="41"/>
     </row>
-    <row r="54" spans="1:13" ht="18" customHeight="1">
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="16"/>
       <c r="C54" s="10"/>
@@ -45800,7 +45798,7 @@
       <c r="L54" s="35"/>
       <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="1:13" ht="18" customHeight="1">
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
@@ -45815,7 +45813,7 @@
       <c r="L55" s="39"/>
       <c r="M55" s="41"/>
     </row>
-    <row r="56" spans="1:13" ht="18" customHeight="1">
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="16"/>
       <c r="C56" s="10"/>
@@ -45830,7 +45828,7 @@
       <c r="L56" s="35"/>
       <c r="M56" s="37"/>
     </row>
-    <row r="57" spans="1:13" ht="18" customHeight="1">
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
@@ -45845,7 +45843,7 @@
       <c r="L57" s="39"/>
       <c r="M57" s="41"/>
     </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1">
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="16"/>
       <c r="C58" s="10"/>
@@ -45860,7 +45858,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -45875,11 +45873,11 @@
       <c r="L59" s="50"/>
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="1:13" ht="18" customHeight="1" thickTop="1"/>
-    <row r="61" spans="1:13" ht="18" customHeight="1"/>
-    <row r="62" spans="1:13" ht="18" customHeight="1"/>
-    <row r="63" spans="1:13" ht="18" customHeight="1"/>
-    <row r="64" spans="1:13" ht="18" customHeight="1"/>
+    <row r="60" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
@@ -45889,6 +45887,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
@@ -84,7 +84,6 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A:$A</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -44942,10 +44941,9 @@
   <cols>
     <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="8" width="14.25" style="24" customWidth="1"/>
-    <col min="9" max="13" width="13.625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="13" width="16.875" style="24" customWidth="1"/>
     <col min="14" max="14" width="1" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="1.125" style="1"/>
@@ -45887,6 +45885,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversalK\Salary\Master list_salary\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -77,7 +77,7 @@
     <definedName name="Ｌホ">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO">[7]!OPT_NO</definedName>
     <definedName name="OPT_YES">[7]!OPT_YES</definedName>
@@ -109,8 +109,8 @@
     <definedName name="クにＨ">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[11]項目定義書!$A$3:$E$364</definedName>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -1020,6 +1020,18 @@
     <xf numFmtId="40" fontId="4" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,18 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -44957,21 +44957,21 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="B2" s="23"/>
-      <c r="C2" s="65"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="66"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -44983,26 +44983,26 @@
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" thickTop="1">
       <c r="A3" s="17"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="60"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="17"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EHI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,9 +55,9 @@
     <definedName name="ccc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -84,7 +84,6 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$N$60</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[9]!QuitDaicho</definedName>
     <definedName name="SE単価">[8]明細合計!#REF!</definedName>
@@ -127,33 +126,8 @@
     <definedName name="ユーザー一覧">'[12]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[15]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2">#REF!</definedName>
     <definedName name="画面３">#REF!</definedName>
@@ -161,21 +135,18 @@
     <definedName name="画面5">#REF!</definedName>
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了">[16]!終了</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[15]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
@@ -184,7 +155,35 @@
     <definedName name="項目名の登録6">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了">[16]!終了</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -247,19 +246,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -287,7 +286,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -855,7 +854,7 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -44938,22 +44937,18 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="24" customWidth="1"/>
-    <col min="7" max="12" width="24" style="24" customWidth="1"/>
-    <col min="13" max="13" width="34" style="24" customWidth="1"/>
+    <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="13" width="16" style="24" customWidth="1"/>
     <col min="14" max="14" width="1" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="1"/>
+    <col min="15" max="15" width="4.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44967,7 +44962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="23"/>
       <c r="C2" s="56"/>
       <c r="D2" s="23"/>
@@ -44981,7 +44976,7 @@
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="65" t="s">
         <v>2</v>
@@ -45004,7 +44999,7 @@
       <c r="L3" s="61"/>
       <c r="M3" s="64"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -45044,7 +45039,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" thickTop="1">
+    <row r="5" spans="1:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="15"/>
       <c r="C5" s="7"/>
@@ -45061,7 +45056,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="16"/>
       <c r="C6" s="10"/>
@@ -45078,7 +45073,7 @@
       <c r="L6" s="35"/>
       <c r="M6" s="37"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17"/>
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
@@ -45095,7 +45090,7 @@
       <c r="L7" s="39"/>
       <c r="M7" s="41"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
       <c r="B8" s="16"/>
       <c r="C8" s="10"/>
@@ -45110,7 +45105,7 @@
       <c r="L8" s="35"/>
       <c r="M8" s="37"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
@@ -45125,7 +45120,7 @@
       <c r="L9" s="39"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="16"/>
       <c r="C10" s="10"/>
@@ -45140,7 +45135,7 @@
       <c r="L10" s="35"/>
       <c r="M10" s="37"/>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="15"/>
       <c r="C11" s="7"/>
@@ -45155,7 +45150,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="41"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="16"/>
       <c r="C12" s="10"/>
@@ -45170,7 +45165,7 @@
       <c r="L12" s="35"/>
       <c r="M12" s="37"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="15"/>
       <c r="C13" s="7"/>
@@ -45185,7 +45180,7 @@
       <c r="L13" s="39"/>
       <c r="M13" s="41"/>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="16"/>
       <c r="C14" s="10"/>
@@ -45200,7 +45195,7 @@
       <c r="L14" s="35"/>
       <c r="M14" s="37"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="15"/>
       <c r="C15" s="7"/>
@@ -45215,7 +45210,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="41"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -45230,7 +45225,7 @@
       <c r="L16" s="35"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
@@ -45245,7 +45240,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="41"/>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="16"/>
       <c r="C18" s="10"/>
@@ -45260,7 +45255,7 @@
       <c r="L18" s="35"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="15"/>
       <c r="C19" s="7"/>
@@ -45275,7 +45270,7 @@
       <c r="L19" s="39"/>
       <c r="M19" s="41"/>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="16"/>
       <c r="C20" s="10"/>
@@ -45290,7 +45285,7 @@
       <c r="L20" s="35"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="15"/>
       <c r="C21" s="7"/>
@@ -45305,7 +45300,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="41"/>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="16"/>
       <c r="C22" s="10"/>
@@ -45320,7 +45315,7 @@
       <c r="L22" s="35"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
@@ -45335,7 +45330,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="41"/>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="16"/>
       <c r="C24" s="10"/>
@@ -45350,7 +45345,7 @@
       <c r="L24" s="35"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
@@ -45365,7 +45360,7 @@
       <c r="L25" s="39"/>
       <c r="M25" s="41"/>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="16"/>
       <c r="C26" s="10"/>
@@ -45380,7 +45375,7 @@
       <c r="L26" s="35"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
@@ -45395,7 +45390,7 @@
       <c r="L27" s="39"/>
       <c r="M27" s="41"/>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
@@ -45410,7 +45405,7 @@
       <c r="L28" s="35"/>
       <c r="M28" s="37"/>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
@@ -45425,7 +45420,7 @@
       <c r="L29" s="39"/>
       <c r="M29" s="41"/>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
@@ -45440,7 +45435,7 @@
       <c r="L30" s="35"/>
       <c r="M30" s="37"/>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
@@ -45455,7 +45450,7 @@
       <c r="L31" s="39"/>
       <c r="M31" s="41"/>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="16"/>
       <c r="C32" s="10"/>
@@ -45470,7 +45465,7 @@
       <c r="L32" s="35"/>
       <c r="M32" s="37"/>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
@@ -45485,7 +45480,7 @@
       <c r="L33" s="39"/>
       <c r="M33" s="41"/>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10"/>
@@ -45500,7 +45495,7 @@
       <c r="L34" s="35"/>
       <c r="M34" s="37"/>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
@@ -45515,7 +45510,7 @@
       <c r="L35" s="39"/>
       <c r="M35" s="41"/>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10"/>
@@ -45530,7 +45525,7 @@
       <c r="L36" s="35"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
@@ -45545,7 +45540,7 @@
       <c r="L37" s="39"/>
       <c r="M37" s="41"/>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="16"/>
       <c r="C38" s="10"/>
@@ -45560,7 +45555,7 @@
       <c r="L38" s="35"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
@@ -45575,7 +45570,7 @@
       <c r="L39" s="39"/>
       <c r="M39" s="41"/>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10"/>
@@ -45590,7 +45585,7 @@
       <c r="L40" s="35"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
@@ -45605,7 +45600,7 @@
       <c r="L41" s="39"/>
       <c r="M41" s="41"/>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="16"/>
       <c r="C42" s="10"/>
@@ -45620,7 +45615,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="37"/>
     </row>
-    <row r="43" spans="1:13" ht="18" customHeight="1">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
@@ -45635,7 +45630,7 @@
       <c r="L43" s="39"/>
       <c r="M43" s="41"/>
     </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="16"/>
       <c r="C44" s="10"/>
@@ -45650,7 +45645,7 @@
       <c r="L44" s="35"/>
       <c r="M44" s="37"/>
     </row>
-    <row r="45" spans="1:13" ht="18" customHeight="1">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17"/>
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
@@ -45665,7 +45660,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="41"/>
     </row>
-    <row r="46" spans="1:13" ht="18" customHeight="1">
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17"/>
       <c r="B46" s="16"/>
       <c r="C46" s="10"/>
@@ -45680,7 +45675,7 @@
       <c r="L46" s="35"/>
       <c r="M46" s="37"/>
     </row>
-    <row r="47" spans="1:13" ht="18" customHeight="1">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
@@ -45695,7 +45690,7 @@
       <c r="L47" s="39"/>
       <c r="M47" s="41"/>
     </row>
-    <row r="48" spans="1:13" ht="18" customHeight="1">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -45710,7 +45705,7 @@
       <c r="L48" s="35"/>
       <c r="M48" s="37"/>
     </row>
-    <row r="49" spans="1:13" ht="18" customHeight="1">
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17"/>
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
@@ -45725,7 +45720,7 @@
       <c r="L49" s="39"/>
       <c r="M49" s="41"/>
     </row>
-    <row r="50" spans="1:13" ht="18" customHeight="1">
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="16"/>
       <c r="C50" s="10"/>
@@ -45740,7 +45735,7 @@
       <c r="L50" s="35"/>
       <c r="M50" s="37"/>
     </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1">
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="15"/>
       <c r="C51" s="7"/>
@@ -45755,7 +45750,7 @@
       <c r="L51" s="39"/>
       <c r="M51" s="41"/>
     </row>
-    <row r="52" spans="1:13" ht="18" customHeight="1">
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="16"/>
       <c r="C52" s="10"/>
@@ -45770,7 +45765,7 @@
       <c r="L52" s="35"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="1:13" ht="18" customHeight="1">
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="15"/>
       <c r="C53" s="7"/>
@@ -45785,7 +45780,7 @@
       <c r="L53" s="39"/>
       <c r="M53" s="41"/>
     </row>
-    <row r="54" spans="1:13" ht="18" customHeight="1">
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="16"/>
       <c r="C54" s="10"/>
@@ -45800,7 +45795,7 @@
       <c r="L54" s="35"/>
       <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="1:13" ht="18" customHeight="1">
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
@@ -45815,7 +45810,7 @@
       <c r="L55" s="39"/>
       <c r="M55" s="41"/>
     </row>
-    <row r="56" spans="1:13" ht="18" customHeight="1">
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17"/>
       <c r="B56" s="16"/>
       <c r="C56" s="10"/>
@@ -45830,7 +45825,7 @@
       <c r="L56" s="35"/>
       <c r="M56" s="37"/>
     </row>
-    <row r="57" spans="1:13" ht="18" customHeight="1">
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
@@ -45845,7 +45840,7 @@
       <c r="L57" s="39"/>
       <c r="M57" s="41"/>
     </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1">
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="16"/>
       <c r="C58" s="10"/>
@@ -45860,7 +45855,7 @@
       <c r="L58" s="35"/>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -45875,11 +45870,11 @@
       <c r="L59" s="50"/>
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="1:13" ht="18" customHeight="1" thickTop="1"/>
-    <row r="61" spans="1:13" ht="18" customHeight="1"/>
-    <row r="62" spans="1:13" ht="18" customHeight="1"/>
-    <row r="63" spans="1:13" ht="18" customHeight="1"/>
-    <row r="64" spans="1:13" ht="18" customHeight="1"/>
+    <row r="60" spans="1:13" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D3:E3"/>
@@ -45889,6 +45884,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>